--- a/tests/revival-records-testing-contact.xlsx
+++ b/tests/revival-records-testing-contact.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CalebOlson\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="220" windowWidth="25600" windowHeight="18020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="32">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -109,13 +114,19 @@
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Caleb Olson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +161,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,7 +393,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +401,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -391,80 +461,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -480,6 +487,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -807,22 +822,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="13"/>
-    <col min="5" max="5" width="24.1640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="19.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4"/>
+    <col min="5" max="5" width="24.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" thickBot="1">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,697 +853,937 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="4"/>
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="4"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="D3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="4"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="4"/>
-      <c r="B6" s="17" t="s">
+      <c r="D5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="4"/>
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="31" thickBot="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="19" t="s">
+      <c r="D7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="D10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17" t="s">
+      <c r="D12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="4"/>
-      <c r="B14" s="17" t="s">
+      <c r="D13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="31" thickBot="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="19" t="s">
+      <c r="D14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="10" t="s">
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="6"/>
-      <c r="B17" s="26" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="6"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
+      <c r="D17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="6"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26" t="s">
+      <c r="D18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="6"/>
-      <c r="B20" s="26" t="s">
+      <c r="D19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="6"/>
-      <c r="B21" s="26" t="s">
+      <c r="D20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="31" thickBot="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="28" t="s">
+      <c r="D21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="D22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="6"/>
-      <c r="B24" s="26" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="6"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26" t="s">
+      <c r="D24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="6"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26" t="s">
+      <c r="D25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="6"/>
-      <c r="B27" s="26" t="s">
+      <c r="D26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="6"/>
-      <c r="B28" s="26" t="s">
+      <c r="D27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="31" thickBot="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="28" t="s">
+      <c r="D28" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="D29" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="6"/>
-      <c r="B31" s="26" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="6"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26" t="s">
+      <c r="D31" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="6"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
+      <c r="D32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="6"/>
-      <c r="B34" s="26" t="s">
+      <c r="D33" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="6"/>
-      <c r="B35" s="26" t="s">
+      <c r="D34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="6"/>
-      <c r="B36" s="17" t="s">
+      <c r="D35" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" ht="31" thickBot="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="19" t="s">
+      <c r="D36" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6" t="s">
+      <c r="D37" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="6"/>
-      <c r="B39" s="26" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="6"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26" t="s">
+      <c r="D39" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="6"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26" t="s">
+      <c r="D40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="6"/>
-      <c r="B42" s="26" t="s">
+      <c r="D41" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="6"/>
-      <c r="B43" s="26" t="s">
+      <c r="D42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="6"/>
-      <c r="B44" s="17" t="s">
+      <c r="D43" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" ht="31" thickBot="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="19" t="s">
+      <c r="D44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="10" t="s">
+      <c r="D45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="6"/>
-      <c r="B47" s="26" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="6"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26" t="s">
+      <c r="D47" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="6"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26" t="s">
+      <c r="D48" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="30">
-      <c r="A50" s="6"/>
-      <c r="B50" s="26" t="s">
+      <c r="D49" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="6"/>
-      <c r="B51" s="26" t="s">
+      <c r="D50" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" ht="30">
-      <c r="A52" s="6"/>
-      <c r="B52" s="26" t="s">
+      <c r="D51" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" ht="31" thickBot="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="28" t="s">
+      <c r="D52" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="11" t="s">
+      <c r="D53" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" ht="30">
-      <c r="A55" s="6"/>
-      <c r="B55" s="26" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" ht="30">
-      <c r="A56" s="6"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26" t="s">
+      <c r="D55" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="6"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26" t="s">
+      <c r="D56" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" ht="30">
-      <c r="A58" s="6"/>
-      <c r="B58" s="26" t="s">
+      <c r="D57" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="30">
-      <c r="A59" s="6"/>
-      <c r="B59" s="26" t="s">
+      <c r="D58" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="30">
-      <c r="A60" s="6"/>
-      <c r="B60" s="26" t="s">
+      <c r="D59" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" ht="31" thickBot="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="28" t="s">
+      <c r="D60" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="20"/>
+      <c r="D61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1542,7 +1797,7 @@
     <mergeCell ref="A38:A45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
